--- a/docs/PresenceRules.xlsx
+++ b/docs/PresenceRules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aaaaae977404fa3b/EBAR/Requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{DFC4F5F6-30A8-4D80-9839-77F1B8F1EAAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C3B5421-3EE7-4F8E-A4D3-F6478DBD42BF}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{DFC4F5F6-30A8-4D80-9839-77F1B8F1EAAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F7FB5966-4C56-4279-BA2D-229164049D86}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DD94DFA5-91D0-402C-8FA7-FF5C295CBD49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD94DFA5-91D0-402C-8FA7-FF5C295CBD49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,16 +546,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3E0184-568B-4E27-8BE4-B78658C0E3C7}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" bestFit="1" customWidth="1"/>
   </cols>
